--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,121 +467,337 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>124.6913580246914</v>
+        <v>176</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGO.JK</t>
+          <t>DWGL.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1820</v>
+        <v>276</v>
       </c>
       <c r="D2" t="n">
-        <v>810</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>970.1396648044692</v>
+        <v>122.8989898989899</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/quote/ARGO.JK</t>
+          <t>https://finance.yahoo.com/quote/DWGL.JK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1135.668789808917</v>
+        <v>265.7718120805369</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FORU.JK</t>
+          <t>FMII.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1940</v>
+        <v>545</v>
       </c>
       <c r="D3" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E3" t="n">
-        <v>780.3651685393259</v>
+        <v>235.010101010101</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/quote/FORU.JK</t>
+          <t>https://finance.yahoo.com/quote/FMII.JK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6680</v>
+        <v>141.7910447761194</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KARW.JK</t>
+          <t>GPSO.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3390</v>
+        <v>324</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="E4" t="n">
-        <v>399.4357541899441</v>
+        <v>145.5050505050505</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/quote/KARW.JK</t>
+          <t>https://finance.yahoo.com/quote/GPSO.JK</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>918.867924528302</v>
+        <v>144</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LABA.JK</t>
+          <t>HOMI.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>540</v>
+        <v>366</v>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="E5" t="n">
-        <v>117.1787709497207</v>
+        <v>223.1010101010101</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/quote/LABA.JK</t>
+          <t>https://finance.yahoo.com/quote/HOMI.JK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>109.1463414634146</v>
+        <v>313.1147540983607</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SINI.JK</t>
+          <t>INPC.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1715</v>
+        <v>252</v>
       </c>
       <c r="D6" t="n">
-        <v>820</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>880.586592178771</v>
+        <v>84.22222222222223</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/quote/SINI.JK</t>
+          <t>https://finance.yahoo.com/quote/INPC.JK</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>350</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JIHD.JK</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1395</v>
+      </c>
+      <c r="D7" t="n">
+        <v>310</v>
+      </c>
+      <c r="E7" t="n">
+        <v>470.8080808080808</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/JIHD.JK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>410.230179028133</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JSPT.JK</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9975</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1955</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2938.282828282828</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/JSPT.JK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>532.1428571428571</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>KLIN.JK</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>177</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>56.09090909090909</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/KLIN.JK</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1017.647058823529</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MTSM.JK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>760</v>
+      </c>
+      <c r="D10" t="n">
+        <v>68</v>
+      </c>
+      <c r="E10" t="n">
+        <v>161.9393939393939</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/MTSM.JK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>500</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NINE.JK</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.484848484848484</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/NINE.JK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>200.8849557522124</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PNSE.JK</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D12" t="n">
+        <v>452</v>
+      </c>
+      <c r="E12" t="n">
+        <v>511.7474747474748</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/PNSE.JK</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>175.1322751322751</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SMDM.JK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>520</v>
+      </c>
+      <c r="D13" t="n">
+        <v>189</v>
+      </c>
+      <c r="E13" t="n">
+        <v>446.4747474747475</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/SMDM.JK</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>986.0215053763441</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SONA.JK</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>930</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3689.49494949495</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/SONA.JK</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>350</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TAXI.JK</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.353535353535354</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/TAXI.JK</t>
         </is>
       </c>
     </row>

--- a/stock_analysis.xlsx
+++ b/stock_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,358 +446,470 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>nama_saham</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>harga_hari_ini</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>harga_awal</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>rata_rata</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>link_saham</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>deviasi</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>deviasiper</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rocPerDev</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>rocdev</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rocp</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DWGL.JK</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>276</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100</v>
+          <t>CARE.JK</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5,565,312,481</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Metro Healthcare Indonesia Tbk.</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>122.8989898989899</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/DWGL.JK</t>
+        <v>181</v>
+      </c>
+      <c r="F2" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2" t="n">
+        <v>120</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/CARE.JK</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1.32</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>265.7718120805369</v>
+        <v>471</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FMII.JK</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>545</v>
-      </c>
-      <c r="D3" t="n">
-        <v>149</v>
+          <t>GPSO.JK</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1,585,684,339</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Geoprima Solusi Tbk.</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>235.010101010101</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/FMII.JK</t>
+        <v>600</v>
+      </c>
+      <c r="F3" t="n">
+        <v>105</v>
+      </c>
+      <c r="G3" t="n">
+        <v>197</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/GPSO.JK</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>126.55</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>126.55</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>22.35</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>4.71</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>141.7910447761194</v>
+        <v>167</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GPSO.JK</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>324</v>
-      </c>
-      <c r="D4" t="n">
-        <v>134</v>
+          <t>HOMI.JK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3,618,599,976</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Grand House Mulia Tbk.</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>145.5050505050505</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/GPSO.JK</t>
+        <v>366</v>
+      </c>
+      <c r="F4" t="n">
+        <v>137</v>
+      </c>
+      <c r="G4" t="n">
+        <v>287</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/HOMI.JK</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1.67</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>144</v>
+        <v>550</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOMI.JK</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>366</v>
-      </c>
-      <c r="D5" t="n">
-        <v>150</v>
+          <t>INPC.JK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19,887,966,617</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bank Artha Graha Internasional </t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>223.1010101010101</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/HOMI.JK</t>
+        <v>436</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>139</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/INPC.JK</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>110.52</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>110.52</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>5.51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>313.1147540983607</v>
+        <v>96</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INPC.JK</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>252</v>
-      </c>
-      <c r="D6" t="n">
-        <v>61</v>
+          <t>PTRO.JK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>131,180,110,942</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Petrosea Tbk</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>84.22222222222223</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/INPC.JK</t>
+        <v>24700</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12600</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16119</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/PTRO.JK</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3002.63</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>3002.63</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.96</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>350</v>
+        <v>64</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JIHD.JK</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1395</v>
-      </c>
-      <c r="D7" t="n">
-        <v>310</v>
+          <t>SNLK.JK</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3,342,422,268</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sunter Lakeside Hotel Tbk.</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>470.8080808080808</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/JIHD.JK</t>
+        <v>890</v>
+      </c>
+      <c r="F7" t="n">
+        <v>540</v>
+      </c>
+      <c r="G7" t="n">
+        <v>737</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/SNLK.JK</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>410.230179028133</v>
+        <v>84</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JSPT.JK</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>9975</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1955</v>
+          <t>VTNY.JK</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5,922,462,824</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Venteny Fortuna International T</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>2938.282828282828</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/JSPT.JK</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>532.1428571428571</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>KLIN.JK</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>177</v>
-      </c>
-      <c r="D9" t="n">
-        <v>28</v>
-      </c>
-      <c r="E9" t="n">
-        <v>56.09090909090909</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/KLIN.JK</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1017.647058823529</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MTSM.JK</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>760</v>
-      </c>
-      <c r="D10" t="n">
-        <v>68</v>
-      </c>
-      <c r="E10" t="n">
-        <v>161.9393939393939</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/MTSM.JK</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>500</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>NINE.JK</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.484848484848484</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/NINE.JK</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>200.8849557522124</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PNSE.JK</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1360</v>
-      </c>
-      <c r="D12" t="n">
-        <v>452</v>
-      </c>
-      <c r="E12" t="n">
-        <v>511.7474747474748</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/PNSE.JK</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>175.1322751322751</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SMDM.JK</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>520</v>
-      </c>
-      <c r="D13" t="n">
-        <v>189</v>
-      </c>
-      <c r="E13" t="n">
-        <v>446.4747474747475</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/SMDM.JK</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>986.0215053763441</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SONA.JK</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>10100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>930</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3689.49494949495</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/SONA.JK</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>350</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TAXI.JK</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.353535353535354</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/quote/TAXI.JK</t>
+        <v>246</v>
+      </c>
+      <c r="F8" t="n">
+        <v>133</v>
+      </c>
+      <c r="G8" t="n">
+        <v>159</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/VTNY.JK</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>30.19</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>30.19</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.85</t>
         </is>
       </c>
     </row>
